--- a/工作流/PrlBA_Pay_付款申请单设计(博爱).xlsx
+++ b/工作流/PrlBA_Pay_付款申请单设计(博爱).xlsx
@@ -5,11 +5,11 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\化炫\GitWeb\现代医院内部网\工作流\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\MyWeb\stamfordoa\工作流\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="20640" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="2"/>
+    <workbookView xWindow="22980" yWindow="0" windowWidth="18150" windowHeight="12390" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="功能概述" sheetId="1" r:id="rId1"/>
@@ -1945,22 +1945,22 @@
       <xdr:twoCellAnchor editAs="oneCell">
         <xdr:from>
           <xdr:col>0</xdr:col>
-          <xdr:colOff>47625</xdr:colOff>
-          <xdr:row>23</xdr:row>
-          <xdr:rowOff>57150</xdr:rowOff>
+          <xdr:colOff>0</xdr:colOff>
+          <xdr:row>24</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>3</xdr:col>
-          <xdr:colOff>209550</xdr:colOff>
-          <xdr:row>107</xdr:row>
-          <xdr:rowOff>76200</xdr:rowOff>
+          <xdr:colOff>123825</xdr:colOff>
+          <xdr:row>108</xdr:row>
+          <xdr:rowOff>114300</xdr:rowOff>
         </xdr:to>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
-            <xdr:cNvPr id="4110" name="Object 1038" hidden="1">
+            <xdr:cNvPr id="4112" name="Object 1040" hidden="1">
               <a:extLst>
                 <a:ext uri="{63B3BB69-23CF-44E3-9099-C40C66FF867C}">
-                  <a14:compatExt spid="_x0000_s4110"/>
+                  <a14:compatExt spid="_x0000_s4112"/>
                 </a:ext>
               </a:extLst>
             </xdr:cNvPr>
@@ -1981,10 +1981,23 @@
               <a:solidFill>
                 <a:srgbClr val="000000" mc:Ignorable="a14" a14:legacySpreadsheetColorIndex="64"/>
               </a:solidFill>
+              <a:prstDash val="solid"/>
               <a:miter lim="800000"/>
               <a:headEnd/>
-              <a:tailEnd/>
+              <a:tailEnd type="none" w="med" len="med"/>
             </a:ln>
+            <a:effectLst/>
+            <a:extLst>
+              <a:ext uri="{AF507438-7753-43E0-B8FC-AC1667EBCBE1}">
+                <a14:hiddenEffects>
+                  <a:effectLst>
+                    <a:outerShdw dist="35921" dir="2700000" algn="ctr" rotWithShape="0">
+                      <a:srgbClr val="808080"/>
+                    </a:outerShdw>
+                  </a:effectLst>
+                </a14:hiddenEffects>
+              </a:ext>
+            </a:extLst>
           </xdr:spPr>
         </xdr:sp>
         <xdr:clientData/>
@@ -2654,8 +2667,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D23"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A49" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="12" x14ac:dyDescent="0.15"/>
@@ -2947,27 +2960,27 @@
   <oleObjects>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
       <mc:Choice Requires="x14">
-        <oleObject progId="Visio.Drawing.15" shapeId="4110" r:id="rId4">
+        <oleObject progId="Visio.Drawing.15" shapeId="4112" r:id="rId4">
           <objectPr defaultSize="0" r:id="rId5">
             <anchor moveWithCells="1">
               <from>
                 <xdr:col>0</xdr:col>
-                <xdr:colOff>47625</xdr:colOff>
-                <xdr:row>23</xdr:row>
-                <xdr:rowOff>57150</xdr:rowOff>
+                <xdr:colOff>0</xdr:colOff>
+                <xdr:row>24</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>3</xdr:col>
-                <xdr:colOff>209550</xdr:colOff>
-                <xdr:row>107</xdr:row>
-                <xdr:rowOff>76200</xdr:rowOff>
+                <xdr:colOff>123825</xdr:colOff>
+                <xdr:row>108</xdr:row>
+                <xdr:rowOff>114300</xdr:rowOff>
               </to>
             </anchor>
           </objectPr>
         </oleObject>
       </mc:Choice>
       <mc:Fallback>
-        <oleObject progId="Visio.Drawing.15" shapeId="4110" r:id="rId4"/>
+        <oleObject progId="Visio.Drawing.15" shapeId="4112" r:id="rId4"/>
       </mc:Fallback>
     </mc:AlternateContent>
   </oleObjects>
